--- a/data/pca/factorExposure/factorExposure_2018-07-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0319636649924947</v>
+        <v>-0.02572354213469835</v>
       </c>
       <c r="C2">
-        <v>0.03642702732271765</v>
+        <v>-0.01735845080316646</v>
       </c>
       <c r="D2">
-        <v>0.01710584959084628</v>
+        <v>-0.02051994069826072</v>
       </c>
       <c r="E2">
-        <v>0.009245307577969627</v>
+        <v>-0.01715971213145821</v>
       </c>
       <c r="F2">
-        <v>-0.1239924388285597</v>
+        <v>0.007059920418939633</v>
       </c>
       <c r="G2">
-        <v>-0.05800554356457194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.05290607881659122</v>
+      </c>
+      <c r="H2">
+        <v>0.04751665761487123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1176359184296367</v>
+        <v>-0.08315052704637639</v>
       </c>
       <c r="C3">
-        <v>-0.004554257604955586</v>
+        <v>0.01337600632354378</v>
       </c>
       <c r="D3">
-        <v>0.07481407966503673</v>
+        <v>-0.02397151525831344</v>
       </c>
       <c r="E3">
-        <v>0.0254723204842938</v>
+        <v>-0.01610462330557574</v>
       </c>
       <c r="F3">
-        <v>-0.397994416344953</v>
+        <v>-0.04002316348723839</v>
       </c>
       <c r="G3">
-        <v>-0.2101409988766599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.183426895480552</v>
+      </c>
+      <c r="H3">
+        <v>0.1435096719498272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05481108741058993</v>
+        <v>-0.04812527560057626</v>
       </c>
       <c r="C4">
-        <v>0.02377806848759276</v>
+        <v>-0.003332137478950024</v>
       </c>
       <c r="D4">
-        <v>-0.02833408244727349</v>
+        <v>-0.04081918596853205</v>
       </c>
       <c r="E4">
-        <v>0.05876468306065525</v>
+        <v>0.02453205008659502</v>
       </c>
       <c r="F4">
-        <v>-0.07808225426383646</v>
+        <v>0.04944169581412344</v>
       </c>
       <c r="G4">
-        <v>-0.05213250820384197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04228455007410872</v>
+      </c>
+      <c r="H4">
+        <v>0.05498440020411811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01376965588893516</v>
+        <v>-0.0269252035452981</v>
       </c>
       <c r="C6">
-        <v>0.008676302820089792</v>
+        <v>-0.003561921152490459</v>
       </c>
       <c r="D6">
-        <v>0.01329323653060648</v>
+        <v>-0.05006562754981017</v>
       </c>
       <c r="E6">
-        <v>0.02106966103823651</v>
+        <v>0.01074860964279343</v>
       </c>
       <c r="F6">
-        <v>-0.01328253852339111</v>
+        <v>0.02970494718837239</v>
       </c>
       <c r="G6">
-        <v>0.003600986009908304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0119449961810921</v>
+      </c>
+      <c r="H6">
+        <v>0.06331648978687474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02478069013224192</v>
+        <v>-0.022594497328118</v>
       </c>
       <c r="C7">
-        <v>0.001654753760634576</v>
+        <v>-0.002669666017060379</v>
       </c>
       <c r="D7">
-        <v>0.007921032576686594</v>
+        <v>-0.02377168030190758</v>
       </c>
       <c r="E7">
-        <v>0.03413929411764673</v>
+        <v>0.04264456803448965</v>
       </c>
       <c r="F7">
-        <v>-0.05244282412208151</v>
+        <v>0.002126416219355233</v>
       </c>
       <c r="G7">
-        <v>-0.06209758960899652</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.0237439223772896</v>
+      </c>
+      <c r="H7">
+        <v>0.03747158005923032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0203875300646874</v>
+        <v>-0.007390145662288523</v>
       </c>
       <c r="C8">
-        <v>0.02002771564426209</v>
+        <v>0.002155199958832895</v>
       </c>
       <c r="D8">
-        <v>0.002067206321776645</v>
+        <v>-0.01181098111565745</v>
       </c>
       <c r="E8">
-        <v>0.05898922467966004</v>
+        <v>0.004901655019369542</v>
       </c>
       <c r="F8">
-        <v>-0.09382147192408413</v>
+        <v>0.01712239255003103</v>
       </c>
       <c r="G8">
-        <v>-0.07662443376903257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04738246513377454</v>
+      </c>
+      <c r="H8">
+        <v>0.03699844932663204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04370928488834928</v>
+        <v>-0.03946366568736747</v>
       </c>
       <c r="C9">
-        <v>0.02359441318212014</v>
+        <v>0.000625248480051635</v>
       </c>
       <c r="D9">
-        <v>-0.01341689396166172</v>
+        <v>-0.03315851381924576</v>
       </c>
       <c r="E9">
-        <v>0.05219544140383549</v>
+        <v>0.01185461275692059</v>
       </c>
       <c r="F9">
-        <v>-0.07804272725721537</v>
+        <v>0.02595449056051022</v>
       </c>
       <c r="G9">
-        <v>-0.05826533550598804</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04861317927836738</v>
+      </c>
+      <c r="H9">
+        <v>0.05108962190399118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02951005457915669</v>
+        <v>-0.09673199932669008</v>
       </c>
       <c r="C10">
-        <v>-0.03956076775345998</v>
+        <v>0.02786136136392807</v>
       </c>
       <c r="D10">
-        <v>-0.05121829507104072</v>
+        <v>0.1556775726003752</v>
       </c>
       <c r="E10">
-        <v>-0.1119726755970065</v>
+        <v>-0.01868630720188368</v>
       </c>
       <c r="F10">
-        <v>-0.05651833735815463</v>
+        <v>-0.04600585374864284</v>
       </c>
       <c r="G10">
-        <v>0.01983803829048026</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02559141112874339</v>
+      </c>
+      <c r="H10">
+        <v>0.003048374668069468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03779792727993359</v>
+        <v>-0.02261720803385415</v>
       </c>
       <c r="C11">
-        <v>0.01647945508472282</v>
+        <v>0.008766150150951739</v>
       </c>
       <c r="D11">
-        <v>0.008307253831674412</v>
+        <v>-0.0370818182748018</v>
       </c>
       <c r="E11">
-        <v>0.0368232758494647</v>
+        <v>0.001211614051594093</v>
       </c>
       <c r="F11">
-        <v>-0.04190270563868151</v>
+        <v>0.01033943233130565</v>
       </c>
       <c r="G11">
-        <v>-0.02451370204979821</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02660393528530403</v>
+      </c>
+      <c r="H11">
+        <v>0.04343034784301126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04379131275290492</v>
+        <v>-0.03114108717430839</v>
       </c>
       <c r="C12">
-        <v>0.0151205464832875</v>
+        <v>0.007128993118592337</v>
       </c>
       <c r="D12">
-        <v>0.001061750225166778</v>
+        <v>-0.03812991657320332</v>
       </c>
       <c r="E12">
-        <v>0.04155457647543169</v>
+        <v>0.01043068394889318</v>
       </c>
       <c r="F12">
-        <v>-0.02859005067759585</v>
+        <v>0.01649964597870367</v>
       </c>
       <c r="G12">
-        <v>-0.01399536119573235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01173666000709242</v>
+      </c>
+      <c r="H12">
+        <v>0.02312625586650564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02111554643903252</v>
+        <v>-0.02609634868976075</v>
       </c>
       <c r="C13">
-        <v>0.0263618113489128</v>
+        <v>-0.01388445472838727</v>
       </c>
       <c r="D13">
-        <v>0.007921764410655934</v>
+        <v>-0.003004547892326644</v>
       </c>
       <c r="E13">
-        <v>0.006921780475016166</v>
+        <v>-0.0137189188219784</v>
       </c>
       <c r="F13">
-        <v>-0.07942380079905849</v>
+        <v>0.009802202169355885</v>
       </c>
       <c r="G13">
-        <v>-0.04434324618163485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.04963093853626326</v>
+      </c>
+      <c r="H13">
+        <v>0.05152906586826768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01418340009186384</v>
+        <v>-0.01685158376199082</v>
       </c>
       <c r="C14">
-        <v>0.007640468430662542</v>
+        <v>-0.0006491157454307889</v>
       </c>
       <c r="D14">
-        <v>-0.006243294967032696</v>
+        <v>-0.005740696726632319</v>
       </c>
       <c r="E14">
-        <v>0.03844603364837651</v>
+        <v>0.01190644662600735</v>
       </c>
       <c r="F14">
-        <v>-0.05261093124862806</v>
+        <v>0.01289572037412367</v>
       </c>
       <c r="G14">
-        <v>-0.0734842765322595</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04277220638839325</v>
+      </c>
+      <c r="H14">
+        <v>-0.0004415239849611592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02895754682866817</v>
+        <v>-0.02353753742224295</v>
       </c>
       <c r="C16">
-        <v>0.02132739185548115</v>
+        <v>0.009187495239947783</v>
       </c>
       <c r="D16">
-        <v>0.008331107384123161</v>
+        <v>-0.03306247096959558</v>
       </c>
       <c r="E16">
-        <v>0.02959922838919407</v>
+        <v>0.004148869411874585</v>
       </c>
       <c r="F16">
-        <v>-0.04820056548819424</v>
+        <v>0.01636204573835907</v>
       </c>
       <c r="G16">
-        <v>-0.02691977829070217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02467188462011978</v>
+      </c>
+      <c r="H16">
+        <v>0.03740913321525582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04545461973249893</v>
+        <v>-0.03553885141375831</v>
       </c>
       <c r="C19">
-        <v>0.0174367735463588</v>
+        <v>0.0002842364494780981</v>
       </c>
       <c r="D19">
-        <v>0.008580869326160999</v>
+        <v>-0.01735530664187381</v>
       </c>
       <c r="E19">
-        <v>0.05036208967788046</v>
+        <v>0.004519898990369361</v>
       </c>
       <c r="F19">
-        <v>-0.0973809846674447</v>
+        <v>0.01792531722338686</v>
       </c>
       <c r="G19">
-        <v>-0.05342126270968409</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05966398075855575</v>
+      </c>
+      <c r="H19">
+        <v>0.06542391047054899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002705889753978273</v>
+        <v>-0.01048325426779367</v>
       </c>
       <c r="C20">
-        <v>0.01552086146790095</v>
+        <v>-0.00633795358768883</v>
       </c>
       <c r="D20">
-        <v>-0.006525268859512451</v>
+        <v>-0.007587641824531127</v>
       </c>
       <c r="E20">
-        <v>0.04125775652012145</v>
+        <v>0.003341678503060563</v>
       </c>
       <c r="F20">
-        <v>-0.06783351707112512</v>
+        <v>0.01082806813130527</v>
       </c>
       <c r="G20">
-        <v>-0.08579825672566831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04900761161583936</v>
+      </c>
+      <c r="H20">
+        <v>0.01179926167676367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001721623179232808</v>
+        <v>-0.0185419889039835</v>
       </c>
       <c r="C21">
-        <v>-0.001955375990832538</v>
+        <v>-0.006992302417372863</v>
       </c>
       <c r="D21">
-        <v>0.01108829255075469</v>
+        <v>-0.009161033254169578</v>
       </c>
       <c r="E21">
-        <v>0.03893384517466632</v>
+        <v>0.01398215732203178</v>
       </c>
       <c r="F21">
-        <v>-0.05561356560983002</v>
+        <v>0.004453596108556296</v>
       </c>
       <c r="G21">
-        <v>-0.03805057736506022</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05077627652803198</v>
+      </c>
+      <c r="H21">
+        <v>0.03008605178962663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03371577138034164</v>
+        <v>-0.02114632804815656</v>
       </c>
       <c r="C24">
-        <v>0.0224964446807828</v>
+        <v>0.003487031072392436</v>
       </c>
       <c r="D24">
-        <v>0.00368039818681887</v>
+        <v>-0.0339052863185775</v>
       </c>
       <c r="E24">
-        <v>0.01266869478052842</v>
+        <v>0.0008364619825070921</v>
       </c>
       <c r="F24">
-        <v>-0.04151889133253223</v>
+        <v>0.01049007010017884</v>
       </c>
       <c r="G24">
-        <v>-0.02271562844455256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02065181584641455</v>
+      </c>
+      <c r="H24">
+        <v>0.03965646059294965</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03198516260754682</v>
+        <v>-0.03025792508483667</v>
       </c>
       <c r="C25">
-        <v>0.01299703201830515</v>
+        <v>0.001284043620128459</v>
       </c>
       <c r="D25">
-        <v>0.007612248136646711</v>
+        <v>-0.03315279062403824</v>
       </c>
       <c r="E25">
-        <v>0.03970656362407127</v>
+        <v>0.005358160653224774</v>
       </c>
       <c r="F25">
-        <v>-0.0414616894578246</v>
+        <v>0.01612020311900728</v>
       </c>
       <c r="G25">
-        <v>-0.007880997199138708</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02471302893953273</v>
+      </c>
+      <c r="H25">
+        <v>0.04290633595810964</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02447955426842384</v>
+        <v>-0.02133003021068487</v>
       </c>
       <c r="C26">
-        <v>0.01562023433196145</v>
+        <v>-0.01665519552266211</v>
       </c>
       <c r="D26">
-        <v>0.03008512145546587</v>
+        <v>-0.004258256731802247</v>
       </c>
       <c r="E26">
-        <v>0.02725222254617032</v>
+        <v>-0.004597838662250761</v>
       </c>
       <c r="F26">
-        <v>-0.0654899956344601</v>
+        <v>0.001055751728413179</v>
       </c>
       <c r="G26">
-        <v>-0.0374582503822672</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03271877303001697</v>
+      </c>
+      <c r="H26">
+        <v>0.01724477074168587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.06864088883875707</v>
+        <v>-0.02710025569622826</v>
       </c>
       <c r="C27">
-        <v>0.02636112555558635</v>
+        <v>0.01057167612772262</v>
       </c>
       <c r="D27">
-        <v>-0.04068038419711091</v>
+        <v>-0.01448657651110025</v>
       </c>
       <c r="E27">
-        <v>0.03869308258561963</v>
+        <v>0.008199064827972362</v>
       </c>
       <c r="F27">
-        <v>-0.04769694699738666</v>
+        <v>0.01850981128624648</v>
       </c>
       <c r="G27">
-        <v>-0.04055887831279351</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01863994579088658</v>
+      </c>
+      <c r="H27">
+        <v>0.004314289995598497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04503802802865978</v>
+        <v>-0.1426542286184366</v>
       </c>
       <c r="C28">
-        <v>-0.05197455281906657</v>
+        <v>0.02762577377251086</v>
       </c>
       <c r="D28">
-        <v>-0.08267160442657714</v>
+        <v>0.2268430749032624</v>
       </c>
       <c r="E28">
-        <v>-0.1545130406761613</v>
+        <v>-0.01806580664547282</v>
       </c>
       <c r="F28">
-        <v>-0.05737941923951909</v>
+        <v>-0.05328740148438935</v>
       </c>
       <c r="G28">
-        <v>-0.0003491916172056648</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01597293585835001</v>
+      </c>
+      <c r="H28">
+        <v>-0.01957686102692469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02209909299885308</v>
+        <v>-0.02154376775462371</v>
       </c>
       <c r="C29">
-        <v>0.006291286470950248</v>
+        <v>0.001545960014143958</v>
       </c>
       <c r="D29">
-        <v>-0.01130581199912671</v>
+        <v>-0.008486857461128356</v>
       </c>
       <c r="E29">
-        <v>0.05013024619627877</v>
+        <v>0.01285537807420797</v>
       </c>
       <c r="F29">
-        <v>-0.04195633046501358</v>
+        <v>0.01595891788258903</v>
       </c>
       <c r="G29">
-        <v>-0.06100095946940196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03864182343054712</v>
+      </c>
+      <c r="H29">
+        <v>-0.003846835397330224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09626524241391235</v>
+        <v>-0.05524986734250566</v>
       </c>
       <c r="C30">
-        <v>0.066316480136619</v>
+        <v>-0.003338149023282619</v>
       </c>
       <c r="D30">
-        <v>-0.0009197631554347513</v>
+        <v>-0.07241551413460647</v>
       </c>
       <c r="E30">
-        <v>0.07254382590986388</v>
+        <v>-0.02953042590618989</v>
       </c>
       <c r="F30">
-        <v>-0.08198900872055391</v>
+        <v>0.05247915610784615</v>
       </c>
       <c r="G30">
-        <v>-0.04126177040252042</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.05479737956024626</v>
+      </c>
+      <c r="H30">
+        <v>0.06943297794552544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06449120199993288</v>
+        <v>-0.05552898763590434</v>
       </c>
       <c r="C31">
-        <v>0.03628512053955902</v>
+        <v>0.01520068720988099</v>
       </c>
       <c r="D31">
-        <v>0.02273207141573373</v>
+        <v>-0.02483856433798839</v>
       </c>
       <c r="E31">
-        <v>0.01820804096931311</v>
+        <v>-0.005507590008698262</v>
       </c>
       <c r="F31">
-        <v>-0.03790493177876954</v>
+        <v>0.01506614663651071</v>
       </c>
       <c r="G31">
-        <v>-0.08422620989274839</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01965523316378559</v>
+      </c>
+      <c r="H31">
+        <v>0.001442772566985015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02256824908750803</v>
+        <v>-0.01083793119162535</v>
       </c>
       <c r="C32">
-        <v>0.02021172482161642</v>
+        <v>0.01340153733605096</v>
       </c>
       <c r="D32">
-        <v>-0.001383656619485526</v>
+        <v>-0.001302529863836845</v>
       </c>
       <c r="E32">
-        <v>0.08606097402514433</v>
+        <v>0.02810053399328308</v>
       </c>
       <c r="F32">
-        <v>-0.05984299138739639</v>
+        <v>0.03346428660842338</v>
       </c>
       <c r="G32">
-        <v>-0.04926642114131189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.03503980543923913</v>
+      </c>
+      <c r="H32">
+        <v>0.05960563458555192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0547860259718904</v>
+        <v>-0.04059065897722537</v>
       </c>
       <c r="C33">
-        <v>0.02436542913150851</v>
+        <v>0.00169537801089827</v>
       </c>
       <c r="D33">
-        <v>0.03981958601310706</v>
+        <v>-0.03230221455221295</v>
       </c>
       <c r="E33">
-        <v>0.05274905587446897</v>
+        <v>-0.02381321391052324</v>
       </c>
       <c r="F33">
-        <v>-0.08680202408790648</v>
+        <v>0.002940874136162157</v>
       </c>
       <c r="G33">
-        <v>-0.05600264160502492</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.05083480600487107</v>
+      </c>
+      <c r="H33">
+        <v>0.04001274713219788</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03566042590910024</v>
+        <v>-0.02813290258579394</v>
       </c>
       <c r="C34">
-        <v>0.02245117919929443</v>
+        <v>0.01775718902366679</v>
       </c>
       <c r="D34">
-        <v>0.00205667176803886</v>
+        <v>-0.03438948294301086</v>
       </c>
       <c r="E34">
-        <v>0.03823259026924834</v>
+        <v>0.01006839751270041</v>
       </c>
       <c r="F34">
-        <v>-0.05490295716421567</v>
+        <v>0.01747029556128167</v>
       </c>
       <c r="G34">
-        <v>-0.01489910894391988</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02230367353960318</v>
+      </c>
+      <c r="H34">
+        <v>0.03725411337370356</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01722269749629714</v>
+        <v>-0.02179156571620402</v>
       </c>
       <c r="C36">
-        <v>0.006386147463540074</v>
+        <v>-0.003586245504689733</v>
       </c>
       <c r="D36">
-        <v>-0.003642169986730726</v>
+        <v>0.0008340034762436815</v>
       </c>
       <c r="E36">
-        <v>0.03409940709030392</v>
+        <v>0.00513400608131208</v>
       </c>
       <c r="F36">
-        <v>-0.03104911599034817</v>
+        <v>0.004283147902551755</v>
       </c>
       <c r="G36">
-        <v>-0.04099332389884646</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.021017639412711</v>
+      </c>
+      <c r="H36">
+        <v>0.00646013904462668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.002696110128793068</v>
+        <v>-0.02427726356666576</v>
       </c>
       <c r="C38">
-        <v>-0.008246200080607651</v>
+        <v>0.01660682592919678</v>
       </c>
       <c r="D38">
-        <v>0.01687089716933377</v>
+        <v>-0.002547888918893289</v>
       </c>
       <c r="E38">
-        <v>-0.01343264476608933</v>
+        <v>-0.002033936720413651</v>
       </c>
       <c r="F38">
-        <v>-0.04627723125254853</v>
+        <v>0.005716276346429079</v>
       </c>
       <c r="G38">
-        <v>-0.002424641674499424</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02245198339629623</v>
+      </c>
+      <c r="H38">
+        <v>0.03866343161440709</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04276245129203753</v>
+        <v>-0.02077066655332558</v>
       </c>
       <c r="C39">
-        <v>0.03956003446961024</v>
+        <v>0.001710453130146058</v>
       </c>
       <c r="D39">
-        <v>0.01173891366643755</v>
+        <v>-0.07548111977285848</v>
       </c>
       <c r="E39">
-        <v>0.03999077567099535</v>
+        <v>3.325695946134031e-05</v>
       </c>
       <c r="F39">
-        <v>-0.06541167005970615</v>
+        <v>0.02214497642074725</v>
       </c>
       <c r="G39">
-        <v>-0.02262226698012713</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04331401109105358</v>
+      </c>
+      <c r="H39">
+        <v>0.0718167776164326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03930229315275487</v>
+        <v>-0.03519750499166062</v>
       </c>
       <c r="C40">
-        <v>0.0719387215568552</v>
+        <v>0.002146263609786345</v>
       </c>
       <c r="D40">
-        <v>0.01954446698966249</v>
+        <v>-0.01956886618175117</v>
       </c>
       <c r="E40">
-        <v>0.009464100892065407</v>
+        <v>-0.02319568995575294</v>
       </c>
       <c r="F40">
-        <v>-0.07620014660440999</v>
+        <v>0.02708117146744573</v>
       </c>
       <c r="G40">
-        <v>-0.06036079637185458</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02487165623636443</v>
+      </c>
+      <c r="H40">
+        <v>0.06681989150176497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.001382233708810802</v>
+        <v>-0.01146411355990227</v>
       </c>
       <c r="C41">
-        <v>0.001352075301831773</v>
+        <v>-0.0003245708603800764</v>
       </c>
       <c r="D41">
-        <v>0.004869311686908262</v>
+        <v>0.01345859411407653</v>
       </c>
       <c r="E41">
-        <v>0.01440394317075921</v>
+        <v>-0.001933379335642344</v>
       </c>
       <c r="F41">
-        <v>-0.001123266858033155</v>
+        <v>-0.001085685573788706</v>
       </c>
       <c r="G41">
-        <v>-0.05524910796820415</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.00529328861440112</v>
+      </c>
+      <c r="H41">
+        <v>-0.008681460716883048</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3731038211403896</v>
+        <v>-0.2051032361134947</v>
       </c>
       <c r="C42">
-        <v>-0.5359178038222631</v>
+        <v>-0.07328609332263902</v>
       </c>
       <c r="D42">
-        <v>0.6826145595392487</v>
+        <v>-0.3690628295442824</v>
       </c>
       <c r="E42">
-        <v>-0.1327019783874008</v>
+        <v>-0.2213133533324189</v>
       </c>
       <c r="F42">
-        <v>0.2259878334051975</v>
+        <v>-0.8417566229178204</v>
       </c>
       <c r="G42">
-        <v>-0.05562658158318655</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.1969433679712599</v>
+      </c>
+      <c r="H42">
+        <v>-0.04437802770290217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.006185469610700657</v>
+        <v>-0.01113248118879984</v>
       </c>
       <c r="C43">
-        <v>-0.0006940690757657083</v>
+        <v>-0.001880257539984737</v>
       </c>
       <c r="D43">
-        <v>0.01854918260984011</v>
+        <v>0.01475377604531663</v>
       </c>
       <c r="E43">
-        <v>0.01706849121906564</v>
+        <v>-0.008463292157087184</v>
       </c>
       <c r="F43">
-        <v>-0.01861885742860696</v>
+        <v>-0.008499504241079106</v>
       </c>
       <c r="G43">
-        <v>-0.05316468291490549</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.009017724146817325</v>
+      </c>
+      <c r="H43">
+        <v>-0.001908497846932437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01745878326729828</v>
+        <v>-0.015084343422262</v>
       </c>
       <c r="C44">
-        <v>0.002668757247310058</v>
+        <v>0.001481157370808841</v>
       </c>
       <c r="D44">
-        <v>0.01717336879167358</v>
+        <v>-0.01815162163546231</v>
       </c>
       <c r="E44">
-        <v>0.03673653402366771</v>
+        <v>0.004979369665440545</v>
       </c>
       <c r="F44">
-        <v>-0.1103540205067291</v>
+        <v>-0.004454215115567324</v>
       </c>
       <c r="G44">
-        <v>-0.09184776965364561</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04488807469633019</v>
+      </c>
+      <c r="H44">
+        <v>0.05409430558143293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02071152200470909</v>
+        <v>-0.0192199481693061</v>
       </c>
       <c r="C46">
-        <v>0.01378063939114208</v>
+        <v>-0.003424666151305817</v>
       </c>
       <c r="D46">
-        <v>0.01732599262015983</v>
+        <v>-0.01406856880964911</v>
       </c>
       <c r="E46">
-        <v>0.05418312692292551</v>
+        <v>0.0003879927033327223</v>
       </c>
       <c r="F46">
-        <v>-0.05702575845507839</v>
+        <v>0.01522274921996911</v>
       </c>
       <c r="G46">
-        <v>-0.06490743334135407</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05011685487094594</v>
+      </c>
+      <c r="H46">
+        <v>0.01082320644674921</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.100177942805099</v>
+        <v>-0.07699410591589619</v>
       </c>
       <c r="C47">
-        <v>0.03414249044182364</v>
+        <v>0.03076131664517107</v>
       </c>
       <c r="D47">
-        <v>4.924428900587028e-05</v>
+        <v>-0.04131077133618607</v>
       </c>
       <c r="E47">
-        <v>0.02843282895400622</v>
+        <v>0.001445416863837918</v>
       </c>
       <c r="F47">
-        <v>-0.01252051520941658</v>
+        <v>0.02337041972158617</v>
       </c>
       <c r="G47">
-        <v>-0.08680025907717878</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.006055750925285943</v>
+      </c>
+      <c r="H47">
+        <v>-0.02429432753449325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01965547478453142</v>
+        <v>-0.02329215300614008</v>
       </c>
       <c r="C48">
-        <v>0.01061315957428997</v>
+        <v>0.007085273162184061</v>
       </c>
       <c r="D48">
-        <v>0.009826810318299309</v>
+        <v>-0.00625880566314683</v>
       </c>
       <c r="E48">
-        <v>0.03453122709908093</v>
+        <v>0.0006178515288984787</v>
       </c>
       <c r="F48">
-        <v>-0.0495098711653422</v>
+        <v>0.008860091801047189</v>
       </c>
       <c r="G48">
-        <v>-0.02615406154954523</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02733262188142486</v>
+      </c>
+      <c r="H48">
+        <v>0.01577207455197588</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09432079669640635</v>
+        <v>-0.07455236577064223</v>
       </c>
       <c r="C50">
-        <v>0.03580212709588672</v>
+        <v>0.02779595942557584</v>
       </c>
       <c r="D50">
-        <v>0.01353384896825121</v>
+        <v>-0.04231137956313819</v>
       </c>
       <c r="E50">
-        <v>0.04480536662635729</v>
+        <v>0.01757697308290474</v>
       </c>
       <c r="F50">
-        <v>-0.04406146183774183</v>
+        <v>0.01836859836691105</v>
       </c>
       <c r="G50">
-        <v>-0.04825178486716861</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01989171950701776</v>
+      </c>
+      <c r="H50">
+        <v>-0.007093652918726081</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01891151398988292</v>
+        <v>-0.01894352198121763</v>
       </c>
       <c r="C51">
-        <v>-0.0001144363443875749</v>
+        <v>-0.001363069352786414</v>
       </c>
       <c r="D51">
-        <v>0.01511025611004024</v>
+        <v>0.008303877958455618</v>
       </c>
       <c r="E51">
-        <v>0.003056567406364734</v>
+        <v>-0.003638022855078579</v>
       </c>
       <c r="F51">
-        <v>-0.118018378548673</v>
+        <v>-0.01243052627822423</v>
       </c>
       <c r="G51">
-        <v>-0.05953141686015301</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05083081165570964</v>
+      </c>
+      <c r="H51">
+        <v>0.04838524564186889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1065566894952971</v>
+        <v>-0.09431982240620096</v>
       </c>
       <c r="C53">
-        <v>0.04885147443473042</v>
+        <v>0.03781461098641797</v>
       </c>
       <c r="D53">
-        <v>-0.002669145802142958</v>
+        <v>-0.07668230795751063</v>
       </c>
       <c r="E53">
-        <v>0.04588572260974208</v>
+        <v>0.01090167299670912</v>
       </c>
       <c r="F53">
-        <v>0.05473260267427118</v>
+        <v>0.05123086337217298</v>
       </c>
       <c r="G53">
-        <v>-0.01889375576403931</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.04189392896463221</v>
+      </c>
+      <c r="H53">
+        <v>-0.04509858392088757</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0145244900448353</v>
+        <v>-0.0255809105977527</v>
       </c>
       <c r="C54">
-        <v>0.01087252637152332</v>
+        <v>0.01145724728603738</v>
       </c>
       <c r="D54">
-        <v>-0.009312381279020128</v>
+        <v>0.01164971805361086</v>
       </c>
       <c r="E54">
-        <v>0.03616529205998924</v>
+        <v>0.005678173445274044</v>
       </c>
       <c r="F54">
-        <v>-0.05604077902343405</v>
+        <v>0.0062007410184697</v>
       </c>
       <c r="G54">
-        <v>-0.08416365167163715</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03886371755134417</v>
+      </c>
+      <c r="H54">
+        <v>-0.008126478298803516</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1034122956885009</v>
+        <v>-0.07817087351449685</v>
       </c>
       <c r="C55">
-        <v>0.02528329452467402</v>
+        <v>0.03252084699705334</v>
       </c>
       <c r="D55">
-        <v>-0.01578565364842585</v>
+        <v>-0.07452052658072823</v>
       </c>
       <c r="E55">
-        <v>0.0580373582782207</v>
+        <v>0.01595713676446497</v>
       </c>
       <c r="F55">
-        <v>0.04376175083896862</v>
+        <v>0.04000074274491141</v>
       </c>
       <c r="G55">
-        <v>-0.06614657501510975</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01957428134892735</v>
+      </c>
+      <c r="H55">
+        <v>-0.05094555701072801</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1461573366611325</v>
+        <v>-0.1291498602415823</v>
       </c>
       <c r="C56">
-        <v>0.08257006775192799</v>
+        <v>0.05770414932884959</v>
       </c>
       <c r="D56">
-        <v>-0.04837197900740021</v>
+        <v>-0.09634434465925375</v>
       </c>
       <c r="E56">
-        <v>0.05433165503922743</v>
+        <v>0.01486589119182638</v>
       </c>
       <c r="F56">
-        <v>0.113654532430751</v>
+        <v>0.08184199838214649</v>
       </c>
       <c r="G56">
-        <v>0.0396682329737491</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07575529136389632</v>
+      </c>
+      <c r="H56">
+        <v>-0.04795609200343327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04868735751359469</v>
+        <v>-0.04171563735802833</v>
       </c>
       <c r="C57">
-        <v>0.007783153580349029</v>
+        <v>-0.009350201817475867</v>
       </c>
       <c r="D57">
-        <v>0.01860521352364813</v>
+        <v>-0.02553660552077358</v>
       </c>
       <c r="E57">
-        <v>-0.008132365629730409</v>
+        <v>-0.006076291127080059</v>
       </c>
       <c r="F57">
-        <v>-0.085806714676137</v>
+        <v>0.01330364112108206</v>
       </c>
       <c r="G57">
-        <v>-0.06571903174105774</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05729063447608438</v>
+      </c>
+      <c r="H57">
+        <v>0.04253425822980638</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2171849475634511</v>
+        <v>-0.1535640319113273</v>
       </c>
       <c r="C58">
-        <v>0.08519967759420698</v>
+        <v>0.04542612832495719</v>
       </c>
       <c r="D58">
-        <v>0.09589254710796413</v>
+        <v>-0.1585177226289136</v>
       </c>
       <c r="E58">
-        <v>0.1742192296310028</v>
+        <v>-0.1532742210764748</v>
       </c>
       <c r="F58">
-        <v>-0.3062922238909351</v>
+        <v>-0.03435927602578903</v>
       </c>
       <c r="G58">
-        <v>-0.06948998136054037</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8278380905218037</v>
+      </c>
+      <c r="H58">
+        <v>-0.3667714826364052</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.04757503102272612</v>
+        <v>-0.150572186920623</v>
       </c>
       <c r="C59">
-        <v>-0.007762044051982479</v>
+        <v>0.03618667018436517</v>
       </c>
       <c r="D59">
-        <v>-0.07416971750427455</v>
+        <v>0.2265519608035758</v>
       </c>
       <c r="E59">
-        <v>-0.1452464748738507</v>
+        <v>-0.03763265315345912</v>
       </c>
       <c r="F59">
-        <v>-0.07200702248734615</v>
+        <v>-0.03217069572065324</v>
       </c>
       <c r="G59">
-        <v>0.03130425072550639</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.00991770131776808</v>
+      </c>
+      <c r="H59">
+        <v>0.01481275351406756</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1662520091581932</v>
+        <v>-0.1745613118083894</v>
       </c>
       <c r="C60">
-        <v>0.04853113367480155</v>
+        <v>0.037809621412823</v>
       </c>
       <c r="D60">
-        <v>0.04355629627368007</v>
+        <v>-0.01721869817578971</v>
       </c>
       <c r="E60">
-        <v>-0.02518370433908456</v>
+        <v>-0.04609634900810753</v>
       </c>
       <c r="F60">
-        <v>-0.1769704904165872</v>
+        <v>0.03804438687844643</v>
       </c>
       <c r="G60">
-        <v>0.3163546873400399</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04442815391556169</v>
+      </c>
+      <c r="H60">
+        <v>0.391770000354572</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.022026601191495</v>
+        <v>-0.02164589381725019</v>
       </c>
       <c r="C61">
-        <v>0.007488919323704096</v>
+        <v>0.006536765917388454</v>
       </c>
       <c r="D61">
-        <v>0.009129061803064204</v>
+        <v>-0.04135866404032452</v>
       </c>
       <c r="E61">
-        <v>0.02108796111751244</v>
+        <v>0.005961791594974076</v>
       </c>
       <c r="F61">
-        <v>-0.03424734036203038</v>
+        <v>0.01736058488007356</v>
       </c>
       <c r="G61">
-        <v>-0.01387879399983256</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.024847420898991</v>
+      </c>
+      <c r="H61">
+        <v>0.04991694390370924</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01824759392648399</v>
+        <v>-0.01309587968366936</v>
       </c>
       <c r="C63">
-        <v>0.01479358145090343</v>
+        <v>-0.001896526014691913</v>
       </c>
       <c r="D63">
-        <v>0.007337408478800658</v>
+        <v>-0.01537383194194165</v>
       </c>
       <c r="E63">
-        <v>0.04895083342488369</v>
+        <v>0.005329016794393</v>
       </c>
       <c r="F63">
-        <v>-0.01193303421860359</v>
+        <v>0.01581916283731068</v>
       </c>
       <c r="G63">
-        <v>-0.04630169785657989</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01658964768891909</v>
+      </c>
+      <c r="H63">
+        <v>-0.001068789687002062</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03669250385168213</v>
+        <v>-0.04090997471012681</v>
       </c>
       <c r="C64">
-        <v>0.0002721025062913663</v>
+        <v>0.01016698529894591</v>
       </c>
       <c r="D64">
-        <v>-0.01743106825507463</v>
+        <v>-0.0372369445218713</v>
       </c>
       <c r="E64">
-        <v>0.05250048399679604</v>
+        <v>0.01093483459735965</v>
       </c>
       <c r="F64">
-        <v>-0.01599649147246168</v>
+        <v>0.006110749742169186</v>
       </c>
       <c r="G64">
-        <v>-0.06270269040689719</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.00823063982132005</v>
+      </c>
+      <c r="H64">
+        <v>0.03468362350956556</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01507463293993421</v>
+        <v>-0.03055639287415915</v>
       </c>
       <c r="C65">
-        <v>0.009693471439681526</v>
+        <v>-0.004110385593731058</v>
       </c>
       <c r="D65">
-        <v>0.01434320665518814</v>
+        <v>-0.05924771144024994</v>
       </c>
       <c r="E65">
-        <v>0.02016939869277831</v>
+        <v>0.01383865728361197</v>
       </c>
       <c r="F65">
-        <v>-0.008082168490155349</v>
+        <v>0.03226704542496814</v>
       </c>
       <c r="G65">
-        <v>0.008829125282530876</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.001431953080875907</v>
+      </c>
+      <c r="H65">
+        <v>0.06841568286249253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04647238567387391</v>
+        <v>-0.02771258327769438</v>
       </c>
       <c r="C66">
-        <v>0.04107854530903389</v>
+        <v>0.006672712691494853</v>
       </c>
       <c r="D66">
-        <v>0.01275870912846569</v>
+        <v>-0.08788847846227756</v>
       </c>
       <c r="E66">
-        <v>0.03510661853523344</v>
+        <v>-0.001021430368176471</v>
       </c>
       <c r="F66">
-        <v>-0.06040468992352047</v>
+        <v>0.03912628752796537</v>
       </c>
       <c r="G66">
-        <v>-0.01258270448502321</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03480249609496022</v>
+      </c>
+      <c r="H66">
+        <v>0.075503950395232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01602998512259043</v>
+        <v>-0.04434720793410177</v>
       </c>
       <c r="C67">
-        <v>-0.00694741419829686</v>
+        <v>0.01983357839541761</v>
       </c>
       <c r="D67">
-        <v>0.01004789369037854</v>
+        <v>0.00480879863539353</v>
       </c>
       <c r="E67">
-        <v>-0.03587681193807549</v>
+        <v>-0.003686909935674498</v>
       </c>
       <c r="F67">
-        <v>-0.0341299703710005</v>
+        <v>0.01031923283731056</v>
       </c>
       <c r="G67">
-        <v>0.01339537243019665</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.005885893199432095</v>
+      </c>
+      <c r="H67">
+        <v>0.04015549441920607</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05796343415512758</v>
+        <v>-0.1519404965250716</v>
       </c>
       <c r="C68">
-        <v>-0.03532945783033994</v>
+        <v>0.01637377620155859</v>
       </c>
       <c r="D68">
-        <v>-0.1007231626649101</v>
+        <v>0.2215227948452057</v>
       </c>
       <c r="E68">
-        <v>-0.1566155178843401</v>
+        <v>-0.0302609250954264</v>
       </c>
       <c r="F68">
-        <v>-0.060167595258362</v>
+        <v>-0.05131186085248176</v>
       </c>
       <c r="G68">
-        <v>0.05787963071576869</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02156089378982283</v>
+      </c>
+      <c r="H68">
+        <v>-0.03834071553644199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07396641304846736</v>
+        <v>-0.05949056634577402</v>
       </c>
       <c r="C69">
-        <v>0.03715328236844751</v>
+        <v>0.02901161620518723</v>
       </c>
       <c r="D69">
-        <v>-0.001846352496635283</v>
+        <v>-0.036631220491839</v>
       </c>
       <c r="E69">
-        <v>0.007069123113695194</v>
+        <v>-0.0005544842177117716</v>
       </c>
       <c r="F69">
-        <v>-0.01075823508809383</v>
+        <v>0.0303954695555979</v>
       </c>
       <c r="G69">
-        <v>-0.08173756067801731</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01232430364710263</v>
+      </c>
+      <c r="H69">
+        <v>-0.0009198338056935156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07256639300962014</v>
+        <v>-0.144788808809656</v>
       </c>
       <c r="C71">
-        <v>-0.0393218791729561</v>
+        <v>0.02428895312267157</v>
       </c>
       <c r="D71">
-        <v>-0.08316117643351432</v>
+        <v>0.2014342774049936</v>
       </c>
       <c r="E71">
-        <v>-0.2067253519393048</v>
+        <v>-0.03286256026043297</v>
       </c>
       <c r="F71">
-        <v>-0.08064183078614319</v>
+        <v>-0.0608492447181116</v>
       </c>
       <c r="G71">
-        <v>0.01771835011532093</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01935227095037851</v>
+      </c>
+      <c r="H71">
+        <v>-0.02419327300122425</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1127643383844998</v>
+        <v>-0.08597478860362243</v>
       </c>
       <c r="C72">
-        <v>0.07259425540142961</v>
+        <v>0.04136969557424877</v>
       </c>
       <c r="D72">
-        <v>-0.04390240068095443</v>
+        <v>-0.07616513427399746</v>
       </c>
       <c r="E72">
-        <v>0.02976532181061737</v>
+        <v>0.004658466709428277</v>
       </c>
       <c r="F72">
-        <v>-0.1069636903435338</v>
+        <v>0.0787130621267773</v>
       </c>
       <c r="G72">
-        <v>0.1011898873811346</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.05033533701570464</v>
+      </c>
+      <c r="H72">
+        <v>0.1858914213316549</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2471898802317409</v>
+        <v>-0.2392155492199425</v>
       </c>
       <c r="C73">
-        <v>0.05160991483275097</v>
+        <v>0.04851934523923413</v>
       </c>
       <c r="D73">
-        <v>0.04402723394487534</v>
+        <v>-0.05433869891327298</v>
       </c>
       <c r="E73">
-        <v>-0.1051605297502747</v>
+        <v>-0.073590029469272</v>
       </c>
       <c r="F73">
-        <v>-0.3036885927276933</v>
+        <v>0.03306865618555268</v>
       </c>
       <c r="G73">
-        <v>0.4479699773666412</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.0622856937917266</v>
+      </c>
+      <c r="H73">
+        <v>0.5152603064958463</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1383207249873968</v>
+        <v>-0.1216366098333046</v>
       </c>
       <c r="C74">
-        <v>0.03451485809108117</v>
+        <v>0.05401930227682176</v>
       </c>
       <c r="D74">
-        <v>-0.03023767381594075</v>
+        <v>-0.09682833495324934</v>
       </c>
       <c r="E74">
-        <v>0.02682959358963713</v>
+        <v>0.01237557447696655</v>
       </c>
       <c r="F74">
-        <v>0.07141301225297539</v>
+        <v>0.06105321851101635</v>
       </c>
       <c r="G74">
-        <v>0.03324569951074315</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05932315072811901</v>
+      </c>
+      <c r="H74">
+        <v>-0.03070426232042637</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2298712995156584</v>
+        <v>-0.2325476711688388</v>
       </c>
       <c r="C75">
-        <v>0.1399806613290627</v>
+        <v>0.104913964876794</v>
       </c>
       <c r="D75">
-        <v>-0.0665943105534115</v>
+        <v>-0.1519500918520568</v>
       </c>
       <c r="E75">
-        <v>0.06249482617144455</v>
+        <v>0.0026669691377474</v>
       </c>
       <c r="F75">
-        <v>0.1373426496746394</v>
+        <v>0.1483666066053252</v>
       </c>
       <c r="G75">
-        <v>-0.01225412901289193</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.126778925457985</v>
+      </c>
+      <c r="H75">
+        <v>-0.1132362065242872</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.278995647734857</v>
+        <v>-0.2047773967670264</v>
       </c>
       <c r="C76">
-        <v>0.1154465806871014</v>
+        <v>0.09790161015552995</v>
       </c>
       <c r="D76">
-        <v>-0.1350677707132091</v>
+        <v>-0.1454121487711816</v>
       </c>
       <c r="E76">
-        <v>0.06497227632753312</v>
+        <v>0.04988316367389357</v>
       </c>
       <c r="F76">
-        <v>0.1866134967592899</v>
+        <v>0.1453335740909202</v>
       </c>
       <c r="G76">
-        <v>-0.002313036214248968</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1250530277384451</v>
+      </c>
+      <c r="H76">
+        <v>-0.1287373083058821</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1456904698895894</v>
+        <v>-0.07216773753729448</v>
       </c>
       <c r="C77">
-        <v>-0.004952153447498569</v>
+        <v>0.01012199101241172</v>
       </c>
       <c r="D77">
-        <v>0.07360175531999918</v>
+        <v>-0.06853098822005867</v>
       </c>
       <c r="E77">
-        <v>0.08557249637905817</v>
+        <v>-0.01469886815328127</v>
       </c>
       <c r="F77">
-        <v>-0.1725033533781625</v>
+        <v>-0.02896823723369481</v>
       </c>
       <c r="G77">
-        <v>-0.191757479549284</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.09354461632724898</v>
+      </c>
+      <c r="H77">
+        <v>-0.01516328222892389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06309885041944983</v>
+        <v>-0.03869521438592276</v>
       </c>
       <c r="C78">
-        <v>0.02864534143268588</v>
+        <v>0.01099496274508533</v>
       </c>
       <c r="D78">
-        <v>0.01946376161493657</v>
+        <v>-0.06221262850810442</v>
       </c>
       <c r="E78">
-        <v>0.09663593511430481</v>
+        <v>0.006866199571083937</v>
       </c>
       <c r="F78">
-        <v>-0.05117298165872889</v>
+        <v>0.0242590979639996</v>
       </c>
       <c r="G78">
-        <v>-0.04829569299307703</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.04593591206749047</v>
+      </c>
+      <c r="H78">
+        <v>0.06091628580983646</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1247716510328638</v>
+        <v>-0.1396144077758834</v>
       </c>
       <c r="C80">
-        <v>-0.7163301503590899</v>
+        <v>0.03983995310504523</v>
       </c>
       <c r="D80">
-        <v>-0.5125177365713056</v>
+        <v>-0.008858246374665594</v>
       </c>
       <c r="E80">
-        <v>0.4199195952180136</v>
+        <v>0.9396761329734038</v>
       </c>
       <c r="F80">
-        <v>-0.0500529233547621</v>
+        <v>-0.2486401264694506</v>
       </c>
       <c r="G80">
-        <v>0.07906573882819397</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1168860675438972</v>
+      </c>
+      <c r="H80">
+        <v>0.01556832407924113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1708736200916117</v>
+        <v>-0.1512281633293717</v>
       </c>
       <c r="C81">
-        <v>0.08831575401583242</v>
+        <v>0.06760894834488246</v>
       </c>
       <c r="D81">
-        <v>-0.07782102313410395</v>
+        <v>-0.09303655641028517</v>
       </c>
       <c r="E81">
-        <v>0.04583291726561915</v>
+        <v>0.02295487929947467</v>
       </c>
       <c r="F81">
-        <v>0.1325655707905474</v>
+        <v>0.09196397659641475</v>
       </c>
       <c r="G81">
-        <v>0.01712187732920776</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.07914854603429075</v>
+      </c>
+      <c r="H81">
+        <v>-0.08415288421649851</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05032996484339698</v>
+        <v>-0.03396320447023148</v>
       </c>
       <c r="C83">
-        <v>0.01426942515255394</v>
+        <v>0.006186318039534019</v>
       </c>
       <c r="D83">
-        <v>0.04393639891637386</v>
+        <v>-0.02139803528703122</v>
       </c>
       <c r="E83">
-        <v>0.01807630985329668</v>
+        <v>-0.01132112394416269</v>
       </c>
       <c r="F83">
-        <v>-0.05909804857791659</v>
+        <v>0.003972147360994345</v>
       </c>
       <c r="G83">
-        <v>-0.05788158234495287</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04323578914181949</v>
+      </c>
+      <c r="H83">
+        <v>0.03961119681859825</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.252115231150828</v>
+        <v>-0.2180733661025685</v>
       </c>
       <c r="C85">
-        <v>0.11707137176593</v>
+        <v>0.08738837751748449</v>
       </c>
       <c r="D85">
-        <v>-0.08495470222060787</v>
+        <v>-0.1540894692305787</v>
       </c>
       <c r="E85">
-        <v>0.05594003683727652</v>
+        <v>0.009391703686449069</v>
       </c>
       <c r="F85">
-        <v>0.1434793908375038</v>
+        <v>0.1346483814319319</v>
       </c>
       <c r="G85">
-        <v>-0.04697731089158968</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1376239957769393</v>
+      </c>
+      <c r="H85">
+        <v>-0.09047768023759094</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.00246362895664031</v>
+        <v>-0.02190548490763659</v>
       </c>
       <c r="C86">
-        <v>-0.01069717283751178</v>
+        <v>-0.000215664133784474</v>
       </c>
       <c r="D86">
-        <v>0.01642180184330634</v>
+        <v>-0.005474899570627922</v>
       </c>
       <c r="E86">
-        <v>0.0499835162052211</v>
+        <v>-0.01204942687791734</v>
       </c>
       <c r="F86">
-        <v>-0.06508033460507417</v>
+        <v>-0.01722015398435905</v>
       </c>
       <c r="G86">
-        <v>-0.02683188199602119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.06502949917385424</v>
+      </c>
+      <c r="H86">
+        <v>0.07152759334464749</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03947945440143154</v>
+        <v>-0.0297860067422041</v>
       </c>
       <c r="C87">
-        <v>-0.004781834483059943</v>
+        <v>0.003346004262723163</v>
       </c>
       <c r="D87">
-        <v>0.001048821902390951</v>
+        <v>-0.03219069478979999</v>
       </c>
       <c r="E87">
-        <v>0.02968191688348634</v>
+        <v>0.00436912656425488</v>
       </c>
       <c r="F87">
-        <v>-0.1035296749811418</v>
+        <v>0.006731568499774953</v>
       </c>
       <c r="G87">
-        <v>-0.03759604374917148</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.07773385999334885</v>
+      </c>
+      <c r="H87">
+        <v>0.06778910387264532</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01055480452269417</v>
+        <v>-0.03857877406604587</v>
       </c>
       <c r="C88">
-        <v>0.00321828989491995</v>
+        <v>-0.01018303796118325</v>
       </c>
       <c r="D88">
-        <v>-0.01767453723063539</v>
+        <v>-0.002644816519549118</v>
       </c>
       <c r="E88">
-        <v>-0.003346759983191015</v>
+        <v>0.009259283657094551</v>
       </c>
       <c r="F88">
-        <v>-0.01181465289218677</v>
+        <v>0.01149758741494327</v>
       </c>
       <c r="G88">
-        <v>-0.06055581683095253</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.003530069262939492</v>
+      </c>
+      <c r="H88">
+        <v>0.009865258828676849</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08748088931530693</v>
+        <v>-0.2375983865122998</v>
       </c>
       <c r="C89">
-        <v>-0.04997069628743871</v>
+        <v>0.03603686787265867</v>
       </c>
       <c r="D89">
-        <v>-0.111305090411723</v>
+        <v>0.3518860795990058</v>
       </c>
       <c r="E89">
-        <v>-0.2730926272981734</v>
+        <v>-0.0585390396869277</v>
       </c>
       <c r="F89">
-        <v>-0.1322398010133557</v>
+        <v>-0.0657647538542111</v>
       </c>
       <c r="G89">
-        <v>-0.03727684393455565</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.02614341417546265</v>
+      </c>
+      <c r="H89">
+        <v>-0.0189851617156736</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07753566527627961</v>
+        <v>-0.1916916683185634</v>
       </c>
       <c r="C90">
-        <v>-0.08854296051074523</v>
+        <v>0.02926495772475837</v>
       </c>
       <c r="D90">
-        <v>-0.1544460591205022</v>
+        <v>0.3125215453676493</v>
       </c>
       <c r="E90">
-        <v>-0.2882426853074823</v>
+        <v>-0.04434884319113166</v>
       </c>
       <c r="F90">
-        <v>-0.09577081482239672</v>
+        <v>-0.08143974391351648</v>
       </c>
       <c r="G90">
-        <v>-0.02062538949197954</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02715761449841827</v>
+      </c>
+      <c r="H90">
+        <v>-0.06494589651702129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.302042632502182</v>
+        <v>-0.2367583019059996</v>
       </c>
       <c r="C91">
-        <v>0.1271795481248459</v>
+        <v>0.1052396470751147</v>
       </c>
       <c r="D91">
-        <v>-0.07907989863686192</v>
+        <v>-0.144686099784252</v>
       </c>
       <c r="E91">
-        <v>0.03184319234364603</v>
+        <v>0.009508354760837404</v>
       </c>
       <c r="F91">
-        <v>0.2419179645967549</v>
+        <v>0.1397826132328193</v>
       </c>
       <c r="G91">
-        <v>0.03538704708626904</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1524414938710031</v>
+      </c>
+      <c r="H91">
+        <v>-0.164099522014497</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1653448648297788</v>
+        <v>-0.2358098187253068</v>
       </c>
       <c r="C92">
-        <v>-0.06206999114743611</v>
+        <v>0.09159146768242765</v>
       </c>
       <c r="D92">
-        <v>-0.2524656634048617</v>
+        <v>0.2431480875130412</v>
       </c>
       <c r="E92">
-        <v>-0.4141046454266289</v>
+        <v>-0.0187247218391475</v>
       </c>
       <c r="F92">
-        <v>0.05741981015107719</v>
+        <v>-0.03465317367093422</v>
       </c>
       <c r="G92">
-        <v>-0.5107728075486437</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.000885133029612004</v>
+      </c>
+      <c r="H92">
+        <v>-0.152265375904031</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0821394793761947</v>
+        <v>-0.2157011953987083</v>
       </c>
       <c r="C93">
-        <v>-0.09137731960091307</v>
+        <v>0.04165894229802965</v>
       </c>
       <c r="D93">
-        <v>-0.1679716181407882</v>
+        <v>0.33199508105514</v>
       </c>
       <c r="E93">
-        <v>-0.4076729609529252</v>
+        <v>-0.0671610591533896</v>
       </c>
       <c r="F93">
-        <v>-0.06463979790464609</v>
+        <v>-0.09087059026875823</v>
       </c>
       <c r="G93">
-        <v>0.05534539408589523</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03545120929599312</v>
+      </c>
+      <c r="H93">
+        <v>-0.01413904331611869</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.297571306347986</v>
+        <v>-0.2644867681552207</v>
       </c>
       <c r="C94">
-        <v>0.1898318208119284</v>
+        <v>0.09754956342211647</v>
       </c>
       <c r="D94">
-        <v>-0.1336660644292582</v>
+        <v>-0.1405632011438697</v>
       </c>
       <c r="E94">
-        <v>0.04620130980073068</v>
+        <v>-0.001664117352467148</v>
       </c>
       <c r="F94">
-        <v>0.2218302984481644</v>
+        <v>0.1874799207951973</v>
       </c>
       <c r="G94">
-        <v>0.07217044342869511</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1461017172873365</v>
+      </c>
+      <c r="H94">
+        <v>-0.1816346056214068</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07712297884707894</v>
+        <v>-0.05622405592494779</v>
       </c>
       <c r="C95">
-        <v>0.04961468188020796</v>
+        <v>0.03015848225273775</v>
       </c>
       <c r="D95">
-        <v>0.08297586744032644</v>
+        <v>-0.09128965281397251</v>
       </c>
       <c r="E95">
-        <v>0.0858342132563837</v>
+        <v>-0.07898538410199893</v>
       </c>
       <c r="F95">
-        <v>0.01424466782066949</v>
+        <v>0.009205893514727663</v>
       </c>
       <c r="G95">
-        <v>-0.1797179323894832</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.02916188495149261</v>
+      </c>
+      <c r="H95">
+        <v>0.03317794978023108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1791772011702694</v>
+        <v>-0.1817530619551632</v>
       </c>
       <c r="C98">
-        <v>0.0002970903100188508</v>
+        <v>0.06922731236125954</v>
       </c>
       <c r="D98">
-        <v>0.02520074080653629</v>
+        <v>-0.02960818253154382</v>
       </c>
       <c r="E98">
-        <v>-0.07966478661072213</v>
+        <v>-0.04465755237552296</v>
       </c>
       <c r="F98">
-        <v>-0.1639881310883737</v>
+        <v>0.001374079616245901</v>
       </c>
       <c r="G98">
-        <v>0.3335593572192647</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07876180061420704</v>
+      </c>
+      <c r="H98">
+        <v>0.3812150163189972</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007367971595513031</v>
+        <v>-0.01485698607890535</v>
       </c>
       <c r="C101">
-        <v>0.0214771695349598</v>
+        <v>-0.0005426511052649692</v>
       </c>
       <c r="D101">
-        <v>0.009401227123652829</v>
+        <v>-0.01055428852748698</v>
       </c>
       <c r="E101">
-        <v>0.1088378536285642</v>
+        <v>0.005488922997904692</v>
       </c>
       <c r="F101">
-        <v>-0.1393684953981671</v>
+        <v>0.01813470937490613</v>
       </c>
       <c r="G101">
-        <v>-0.157189788825605</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1079543694010834</v>
+      </c>
+      <c r="H101">
+        <v>-0.03322856985061937</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1001508325904721</v>
+        <v>-0.1061712222074467</v>
       </c>
       <c r="C102">
-        <v>0.05599940680240194</v>
+        <v>0.03524381640560135</v>
       </c>
       <c r="D102">
-        <v>-0.02388472267521505</v>
+        <v>-0.07365289773282406</v>
       </c>
       <c r="E102">
-        <v>0.04845012446096193</v>
+        <v>0.009479291262688526</v>
       </c>
       <c r="F102">
-        <v>0.1191732927829264</v>
+        <v>0.06877054608477506</v>
       </c>
       <c r="G102">
-        <v>-0.01735426028435176</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07783172104487392</v>
+      </c>
+      <c r="H102">
+        <v>-0.07110535557754101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02621449340162482</v>
+        <v>-0.01974472748680756</v>
       </c>
       <c r="C103">
-        <v>0.01318157101497204</v>
+        <v>0.007566590464162297</v>
       </c>
       <c r="D103">
-        <v>-0.004145199845279857</v>
+        <v>-0.01635348224148849</v>
       </c>
       <c r="E103">
-        <v>0.0178111573809004</v>
+        <v>0.01138907811582519</v>
       </c>
       <c r="F103">
-        <v>0.009463028394411342</v>
+        <v>0.01367450842934768</v>
       </c>
       <c r="G103">
-        <v>-0.03984764951905582</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0003311928377197255</v>
+      </c>
+      <c r="H103">
+        <v>-0.008439987442215219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.270618715312923</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9455617300679383</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.01219406511529433</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03900518068347601</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.144329164190996</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01311950036753217</v>
+      </c>
+      <c r="H104">
+        <v>-0.03764694665844309</v>
       </c>
     </row>
   </sheetData>
